--- a/biology/Zoologie/Halysites/Halysites.xlsx
+++ b/biology/Zoologie/Halysites/Halysites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halysites est un genre éteint de coraux tabulés (animaux de l'ordre des Tabulata) de la famille éteinte des Halysitidae et de l'ordre éteint des Heliolitida. 
 Ce groupe fut abondant de l'Ordovicien au Dévonien avec une répartition mondiale. 
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le portail Fossilworks liste sept espèces :
 †Halysites catenularia
@@ -522,7 +536,7 @@
 †Halysites priscus
 †Halysites regularis
 †Halysites senior
-Le nom Halysites elegans est un synonyme de †Catenipora elegans Fischer-Benzon, 1871, espèce trouvée dans des terrains du Silurien en Estonie[2],[3],[4].
+Le nom Halysites elegans est un synonyme de †Catenipora elegans Fischer-Benzon, 1871, espèce trouvée dans des terrains du Silurien en Estonie.
 </t>
         </is>
       </c>
